--- a/ocms/src/test/resources/TestData/AgentAuxReportData.xlsx
+++ b/ocms/src/test/resources/TestData/AgentAuxReportData.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{967AD95C-1E5C-4F9A-97D3-3CFE87ECED9F}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="18645" windowHeight="8040" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Show" sheetId="1" r:id="rId1"/>
@@ -14,8 +13,10 @@
     <sheet name="ShowInNewPageDateRange" sheetId="5" r:id="rId4"/>
     <sheet name="ExportReport" sheetId="3" r:id="rId5"/>
     <sheet name="ExportReportDateRange" sheetId="6" r:id="rId6"/>
+    <sheet name="AdvanceSearch" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:N24"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="28">
   <si>
     <t>Report Channel</t>
   </si>
@@ -57,13 +58,64 @@
     <t>Agent</t>
   </si>
   <si>
+    <t>Advanced Search</t>
+  </si>
+  <si>
+    <t>Column Name</t>
+  </si>
+  <si>
+    <t>Column Type</t>
+  </si>
+  <si>
+    <t>Search String</t>
+  </si>
+  <si>
+    <t>OCM Agent Aux Report</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Agent Name</t>
+  </si>
+  <si>
+    <t>Is equal to</t>
+  </si>
+  <si>
+    <t>Palak garg</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> OCM Agent Aux Report</t>
+  </si>
+  <si>
+    <t>Report Name1</t>
+  </si>
+  <si>
     <t>Agent Aux Report</t>
+  </si>
+  <si>
+    <t>Search Sting</t>
+  </si>
+  <si>
+    <t>Is  not equal to</t>
+  </si>
+  <si>
+    <t>Contains</t>
+  </si>
+  <si>
+    <t>Starts with</t>
+  </si>
+  <si>
+    <t>garg</t>
+  </si>
+  <si>
+    <t>mariyam</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -375,11 +427,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -409,7 +461,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -425,11 +477,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{702A1EAB-F881-4B86-A3E3-081C46011C84}">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -438,9 +490,11 @@
     <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="15.42578125" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -456,13 +510,22 @@
       <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -472,6 +535,93 @@
       </c>
       <c r="E2" t="s">
         <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -480,7 +630,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE176447-87D7-4EDC-896D-9D23F07DF512}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -514,7 +664,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -529,11 +679,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C60BEED6-9E0D-4C15-B8C6-0F6124EFA13A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -566,7 +716,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -584,11 +734,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ABD6B37-7362-47B2-8F62-99134BB2493A}">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -599,7 +749,7 @@
     <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -612,19 +762,25 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -633,11 +789,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E6DA6B1-CCD8-43EF-9A87-EEA417F7CC00}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -670,7 +826,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -680,6 +836,83 @@
       </c>
       <c r="E2" t="s">
         <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/ocms/src/test/resources/TestData/AgentAuxReportData.xlsx
+++ b/ocms/src/test/resources/TestData/AgentAuxReportData.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="18645" windowHeight="8040" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19245" windowHeight="8040" firstSheet="5" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Show" sheetId="1" r:id="rId1"/>
-    <sheet name="ShowDateRange" sheetId="4" r:id="rId2"/>
-    <sheet name="ShowInNewPage" sheetId="2" r:id="rId3"/>
-    <sheet name="ShowInNewPageDateRange" sheetId="5" r:id="rId4"/>
-    <sheet name="ExportReport" sheetId="3" r:id="rId5"/>
-    <sheet name="ExportReportDateRange" sheetId="6" r:id="rId6"/>
-    <sheet name="AdvanceSearch" sheetId="7" r:id="rId7"/>
+    <sheet name="ShowDateRange" sheetId="14" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="16" r:id="rId3"/>
+    <sheet name="ShowInNewPage" sheetId="2" r:id="rId4"/>
+    <sheet name="ShowInNewPageDateRange" sheetId="5" r:id="rId5"/>
+    <sheet name="ExportReport" sheetId="3" r:id="rId6"/>
+    <sheet name="ExportReportDateRange" sheetId="6" r:id="rId7"/>
+    <sheet name="AdvanceSearch" sheetId="15" r:id="rId8"/>
+    <sheet name="Queries" sheetId="17" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <oleSize ref="A1:N24"/>
+  <calcPr calcId="0" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="30">
   <si>
     <t>Report Channel</t>
   </si>
@@ -58,58 +59,79 @@
     <t>Agent</t>
   </si>
   <si>
+    <t>OCM Agent Aux Report</t>
+  </si>
+  <si>
+    <t>Report Name1</t>
+  </si>
+  <si>
+    <t>Agent Aux Report</t>
+  </si>
+  <si>
+    <t>Column Name</t>
+  </si>
+  <si>
+    <t>Agent Name</t>
+  </si>
+  <si>
+    <t>Search String</t>
+  </si>
+  <si>
+    <t>Palak garg</t>
+  </si>
+  <si>
+    <t>Is equal to</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
     <t>Advanced Search</t>
   </si>
   <si>
-    <t>Column Name</t>
-  </si>
-  <si>
     <t>Column Type</t>
   </si>
   <si>
-    <t>Search String</t>
-  </si>
-  <si>
-    <t>OCM Agent Aux Report</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Agent Name</t>
-  </si>
-  <si>
-    <t>Is equal to</t>
-  </si>
-  <si>
-    <t>Palak garg</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> OCM Agent Aux Report</t>
-  </si>
-  <si>
-    <t>Report Name1</t>
-  </si>
-  <si>
-    <t>Agent Aux Report</t>
-  </si>
-  <si>
-    <t>Search Sting</t>
-  </si>
-  <si>
     <t>Is  not equal to</t>
   </si>
   <si>
+    <t>garg</t>
+  </si>
+  <si>
     <t>Contains</t>
   </si>
   <si>
-    <t>Starts with</t>
-  </si>
-  <si>
-    <t>garg</t>
+    <t xml:space="preserve">Starts with </t>
   </si>
   <si>
     <t>mariyam</t>
+  </si>
+  <si>
+    <t>Query</t>
+  </si>
+  <si>
+    <t>SELECT X.[AgentID],A.[AgentName],A.[TeamName],A.[SupervisorName],X.[AuxName],X.[AuxCode],Sum(X.[AuxTime]) as [AuxTime]
+ FROM (SELECT AgentID,AgentName,AuxName,AuxCode,DATEDIFF(second,[dbo].[VARCHARTODATETIME](SecondDateTime), [dbo].[VARCHARTODATETIME](FirstDateTime)) AuxTime,[TimeStamp]
+    FROM (
+    SELECT  T.AgentID,T.LoginInstanceID,ISNULL(A.[Username],' ')  AS AgentName,
+    T.[Status] AS AuxName,
+    isnull(convert(varchar,C.[value]),' ') AS AuxCode,
+      LEAD([TimeStamp],1,0) OVER(PARTITION  BY T.AgentID  ORDER BY T.[TimeStamp],T.id asc) FirstDateTime,[TimeStamp] SecondDateTime,[TimeStamp]
+      FROM  AGT_Agent_TimeTrack M WITH(NOLOCK)
+      LEFT JOIN [AGT_Agent_StatusTrack] T WITH(NOLOCK)  ON M.AgentID = T.agentid AND M.LoginInstanceID =  T.LoginInstanceID 
+      LEFT JOIN AGT_Aux_Codes C WITH(NOLOCK) ON C.[Name] =T.[Status] 
+      LEFT JOIN [AGT_Agent] A WITH(NOLOCK) ON A.AvayaLoginID = T.AgentID 
+     ) q
+    WHERE  FirstDateTime IS NOT NULL)  
+ X INNER JOIN fn_AgentHierarchy('na',1,1) A ON A.[AgentId]=X.[AgentID] 
+ WHERE TimeStamp&gt;='ReportBeforeDate' and TimeStamp&lt;='ReportAfterDate' AND [AuxName] NOT IN ('Login','Logout','Default')
+ group by X.[AgentID],A.[AgentName],[AuxName],[AuxCode],A.[TeamName],A.[SupervisorName]</t>
+  </si>
+  <si>
+    <t>07-01-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>08-01-2020 00:00:00</t>
   </si>
 </sst>
 </file>
@@ -145,9 +167,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -431,7 +463,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E1" sqref="E1:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -461,7 +493,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -480,148 +512,145 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="15.42578125" customWidth="1"/>
-    <col min="8" max="8" width="17.7109375" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" customWidth="1"/>
+    <col min="8" max="8" width="24.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="F1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="G5" t="s">
         <v>24</v>
       </c>
-      <c r="H4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>25</v>
-      </c>
-      <c r="H5" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -630,11 +659,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -664,7 +705,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -678,12 +719,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -716,7 +757,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -733,12 +774,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E1" sqref="E1:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -747,6 +788,7 @@
     <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -762,8 +804,8 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>20</v>
+      <c r="E1" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -771,7 +813,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -779,8 +821,8 @@
       <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
-        <v>21</v>
+      <c r="E2" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -788,12 +830,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection sqref="A1:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -802,9 +844,10 @@
     <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -820,13 +863,16 @@
       <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -836,6 +882,9 @@
       </c>
       <c r="E2" t="s">
         <v>5</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -843,76 +892,144 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" customWidth="1"/>
+    <col min="8" max="8" width="13" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="7" t="s">
         <v>8</v>
       </c>
       <c r="F1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
         <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s">
-        <v>16</v>
       </c>
       <c r="H2" t="s">
         <v>17</v>
       </c>
       <c r="I2" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="31" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" customWidth="1"/>
+    <col min="4" max="5" width="22.5703125" customWidth="1"/>
+    <col min="6" max="6" width="73.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/ocms/src/test/resources/TestData/AgentAuxReportData.xlsx
+++ b/ocms/src/test/resources/TestData/AgentAuxReportData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17730" windowHeight="8040" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17730" windowHeight="8040" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Show" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,6 @@
     <sheet name="Queries" sheetId="17" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:J24"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -98,30 +97,6 @@
     <t>Query</t>
   </si>
   <si>
-    <t>SELECT X.[AgentID],A.[AgentName],A.[TeamName],A.[SupervisorName],X.[AuxName],X.[AuxCode],Sum(X.[AuxTime]) as [AuxTime]
- FROM (SELECT AgentID,AgentName,AuxName,AuxCode,DATEDIFF(second,[dbo].[VARCHARTODATETIME](SecondDateTime), [dbo].[VARCHARTODATETIME](FirstDateTime)) AuxTime,[TimeStamp]
-    FROM (
-    SELECT  T.AgentID,T.LoginInstanceID,ISNULL(A.[Username],' ')  AS AgentName,
-    T.[Status] AS AuxName,
-    isnull(convert(varchar,C.[value]),' ') AS AuxCode,
-      LEAD([TimeStamp],1,0) OVER(PARTITION  BY T.AgentID  ORDER BY T.[TimeStamp],T.id asc) FirstDateTime,[TimeStamp] SecondDateTime,[TimeStamp]
-      FROM  AGT_Agent_TimeTrack M WITH(NOLOCK)
-      LEFT JOIN [AGT_Agent_StatusTrack] T WITH(NOLOCK)  ON M.AgentID = T.agentid AND M.LoginInstanceID =  T.LoginInstanceID 
-      LEFT JOIN AGT_Aux_Codes C WITH(NOLOCK) ON C.[Name] =T.[Status] 
-      LEFT JOIN [AGT_Agent] A WITH(NOLOCK) ON A.AvayaLoginID = T.AgentID 
-     ) q
-    WHERE  FirstDateTime IS NOT NULL)  
- X INNER JOIN fn_AgentHierarchy('na',1,1) A ON A.[AgentId]=X.[AgentID] 
- WHERE TimeStamp&gt;='ReportBeforeDate' and TimeStamp&lt;='ReportAfterDate' AND [AuxName] NOT IN ('Login','Logout','Default')
- group by X.[AgentID],A.[AgentName],[AuxName],[AuxCode],A.[TeamName],A.[SupervisorName]</t>
-  </si>
-  <si>
-    <t>07-01-2020 00:00:00</t>
-  </si>
-  <si>
-    <t>08-01-2020 00:00:00</t>
-  </si>
-  <si>
     <t>DeleteReason</t>
   </si>
   <si>
@@ -192,6 +167,35 @@
   </si>
   <si>
     <t>Villers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT M.[AgentID] as [Agent ID],A.[AgentName] as [Agent Name],A.[TeamName] as [Team Name],A.[SupervisorName] as [Supervisor Name],M.[AuxName],M.[AuxCode],
+CONVERT(char(8),DATEADD(second,sum((DATEPART(hh,CONVERT(varchar, DATEADD(ms, AuxTime* 1000, 0), 108))*3600)+
+(DATEPART(mi,CONVERT(varchar, DATEADD(ms, AuxTime* 1000, 0), 108))*60)+
+DATEPART(ss,CONVERT(varchar, DATEADD(ms, AuxTime* 1000, 0), 108))),0),108)
+as [AuxTime] from
+(SELECT Distinct T1.AgentID,ISNULL(A.[Username],' ')  AS AgentName,T1.[Status] AS AuxName,
+isnull(convert(varchar,C.[value]),' ') AS AuxCode,
+isnull((DATEDIFF(SECOND,convert(datetime,stuff(stuff(stuff(T1.[TimeStamp], 9, 0, ' '), 12, 0, ':'), 15, 0, ':')),
+convert(datetime,stuff(stuff(stuff(MIN(T2.[TimeStamp]), 9, 0, ' '), 12, 0, ':'), 15, 0, ':')))),'0') AS AuxTime,
+t1.[TimeStamp] FROM  [AGT_Agent_StatusTrack] T1 with(nolock)
+LEFT JOIN [AGT_Agent_StatusTrack] T2 with(nolock) ON T1.agentid = T2.agentid AND T2.[TimeStamp] &gt; T1.[TimeStamp]  
+LEFT JOIN AGT_Aux_Codes C with(nolock) ON C.[Name] =T1.[Status] 
+LEFT JOIN [AGT_Agent] A with(nolock) ON A.AvayaLoginID = T1.AgentID 
+WHERE T1.[TimeStamp] &gt;= 'ReportBeforeDate' and T1.[TimeStamp] &lt;='ReportAfterDate'
+GROUP BY T1.AgentID,T1.[Status], T1.[TimeStamp],C.[Value],A.[AvayaLoginID],A.[Username] 
+) M 
+INNER JOIN fn_AgentHierarchy('na','1','1') A ON A.[AgentId]=M.[AgentID] 
+AND M.[AuxName] NOT IN ('Login','Logout','Default','Skillaux')
+group by M.[AgentID],A.[AgentName],[AuxName],M.[AuxCode],A.[TeamName],A.[SupervisorName] 
+order by M.AgentID,A.TeamName,M.AuxName
+</t>
+  </si>
+  <si>
+    <t>17-04-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>20-04-2020 00:00:00</t>
   </si>
 </sst>
 </file>
@@ -227,7 +231,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -239,6 +243,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -300,7 +313,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -335,7 +348,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -512,7 +525,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -548,7 +561,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -562,10 +575,10 @@
         <v>4</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -578,8 +591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -620,7 +633,7 @@
         <v>14</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -634,10 +647,10 @@
         <v>5</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>13</v>
@@ -646,10 +659,10 @@
         <v>15</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -663,10 +676,10 @@
         <v>5</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>13</v>
@@ -675,7 +688,7 @@
         <v>19</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -689,10 +702,10 @@
         <v>5</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>13</v>
@@ -701,7 +714,7 @@
         <v>20</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -715,10 +728,10 @@
         <v>5</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>13</v>
@@ -727,7 +740,7 @@
         <v>21</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -741,19 +754,19 @@
         <v>5</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -802,7 +815,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -854,10 +867,10 @@
         <v>5</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -910,7 +923,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>11</v>
@@ -969,10 +982,10 @@
         <v>5</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>11</v>
@@ -1034,10 +1047,10 @@
         <v>14</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -1051,10 +1064,10 @@
         <v>5</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>16</v>
@@ -1066,13 +1079,13 @@
         <v>15</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1086,10 +1099,10 @@
         <v>5</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>16</v>
@@ -1098,13 +1111,13 @@
         <v>13</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K3" s="6"/>
     </row>
@@ -1119,22 +1132,22 @@
         <v>5</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>16</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>20</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
@@ -1150,10 +1163,10 @@
         <v>5</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>16</v>
@@ -1162,10 +1175,10 @@
         <v>13</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
@@ -1181,10 +1194,10 @@
         <v>5</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>16</v>
@@ -1193,10 +1206,10 @@
         <v>13</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
@@ -1212,10 +1225,10 @@
         <v>5</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>16</v>
@@ -1224,10 +1237,10 @@
         <v>13</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
@@ -1241,8 +1254,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1274,23 +1287,23 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="A2" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>25</v>
+      <c r="D2" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>49</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/ocms/src/test/resources/TestData/AgentAuxReportData.xlsx
+++ b/ocms/src/test/resources/TestData/AgentAuxReportData.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BBE9F53-3B18-4E59-B7C5-BAE16CAE9DED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17730" windowHeight="8040" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Show" sheetId="1" r:id="rId1"/>
@@ -201,7 +202,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -525,29 +526,29 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" customWidth="1"/>
+    <col min="1" max="1" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -564,7 +565,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -588,26 +589,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="22.28515625" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="4" max="4" width="19.44140625" customWidth="1"/>
+    <col min="5" max="5" width="16.5546875" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" customWidth="1"/>
-    <col min="8" max="8" width="24.140625" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" customWidth="1"/>
+    <col min="8" max="8" width="24.109375" customWidth="1"/>
     <col min="9" max="9" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -636,7 +637,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>8</v>
       </c>
@@ -665,7 +666,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>8</v>
       </c>
@@ -691,7 +692,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
@@ -717,7 +718,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>8</v>
       </c>
@@ -743,7 +744,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>8</v>
       </c>
@@ -775,22 +776,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -804,7 +805,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -824,22 +825,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -856,7 +857,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -879,23 +880,23 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" customWidth="1"/>
+    <col min="1" max="1" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="16.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -912,7 +913,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -935,23 +936,23 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -971,7 +972,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -997,28 +998,28 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" customWidth="1"/>
-    <col min="5" max="5" width="20.140625" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" customWidth="1"/>
-    <col min="8" max="8" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="18.109375" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="4" max="4" width="19.44140625" customWidth="1"/>
+    <col min="5" max="5" width="20.109375" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" customWidth="1"/>
+    <col min="7" max="7" width="13.88671875" customWidth="1"/>
+    <col min="8" max="8" width="20.5546875" customWidth="1"/>
     <col min="9" max="10" width="14" customWidth="1"/>
-    <col min="11" max="11" width="13.5703125" customWidth="1"/>
+    <col min="11" max="11" width="13.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1053,7 +1054,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>8</v>
       </c>
@@ -1088,7 +1089,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>8</v>
       </c>
@@ -1121,7 +1122,7 @@
       </c>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
@@ -1152,7 +1153,7 @@
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>8</v>
       </c>
@@ -1183,7 +1184,7 @@
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>8</v>
       </c>
@@ -1214,7 +1215,7 @@
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>8</v>
       </c>
@@ -1251,22 +1252,22 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="31" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" customWidth="1"/>
-    <col min="4" max="5" width="22.5703125" customWidth="1"/>
-    <col min="6" max="6" width="73.28515625" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" customWidth="1"/>
+    <col min="4" max="5" width="22.5546875" customWidth="1"/>
+    <col min="6" max="6" width="73.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1286,7 +1287,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>8</v>
       </c>

--- a/ocms/src/test/resources/TestData/AgentAuxReportData.xlsx
+++ b/ocms/src/test/resources/TestData/AgentAuxReportData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BBE9F53-3B18-4E59-B7C5-BAE16CAE9DED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1429A5BF-609C-4839-81AA-B650DD5122FE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Show" sheetId="1" r:id="rId1"/>
@@ -170,7 +170,10 @@
     <t>Villers</t>
   </si>
   <si>
-    <t xml:space="preserve">SELECT M.[AgentID] as [Agent ID],A.[AgentName] as [Agent Name],A.[TeamName] as [Team Name],A.[SupervisorName] as [Supervisor Name],M.[AuxName],M.[AuxCode],
+    <t>09-11-2021 00:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT M.[AgentID] as [Agent ID],A.[AgentName] as [Agent Name],A.[TeamName] as [Org.Unit],A.[SupervisorName] as [Supervisor Name],M.[AuxName],M.[AuxCode],
 CONVERT(char(8),DATEADD(second,sum((DATEPART(hh,CONVERT(varchar, DATEADD(ms, AuxTime* 1000, 0), 108))*3600)+
 (DATEPART(mi,CONVERT(varchar, DATEADD(ms, AuxTime* 1000, 0), 108))*60)+
 DATEPART(ss,CONVERT(varchar, DATEADD(ms, AuxTime* 1000, 0), 108))),0),108)
@@ -193,10 +196,7 @@
 </t>
   </si>
   <si>
-    <t>17-04-2020 00:00:00</t>
-  </si>
-  <si>
-    <t>20-04-2020 00:00:00</t>
+    <t>09-12-2021 00:00:00</t>
   </si>
 </sst>
 </file>
@@ -1001,7 +1001,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
@@ -1255,8 +1255,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1298,13 +1298,13 @@
         <v>5</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>49</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
